--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-406808.3472741717</v>
+        <v>-409289.2670996307</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>355.813695076354</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838811</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335565</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>57.36820351377833</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>344.1495602835004</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I11" t="n">
-        <v>14.6567831857995</v>
+        <v>14.65678318579941</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104938</v>
+        <v>82.26761520104931</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>176.9978235524936</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717754</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830085</v>
+        <v>300.8321118830083</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>322.3208221302864</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>359.317792068927</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9118335948107</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>108.7523211591865</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>121.6953264310858</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271942</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271164</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>53.4212104646595</v>
+        <v>62.01200608292078</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443154</v>
+        <v>162.8488787443153</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890426</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184863</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367014</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494644</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649682</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>355.813695076354</v>
       </c>
       <c r="C14" t="n">
-        <v>53.97111540679589</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>40.71072521252479</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>355.0102234851352</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H14" t="n">
-        <v>267.687617800194</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579938</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.2676152010494</v>
+        <v>82.2676152010493</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>176.9978235524936</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717754</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>300.8321118830083</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302864</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>359.317792068927</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>116.692778174503</v>
+        <v>152.9118335948107</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>107.0733734269379</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>121.6953264310858</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>119.5138160594426</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292076</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.6288026890426</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184863</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367014</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494644</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649682</v>
       </c>
     </row>
     <row r="17">
@@ -1844,19 +1844,19 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D17" t="n">
-        <v>255.7707269681034</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>336.9550866703237</v>
       </c>
       <c r="H17" t="n">
         <v>220.7124811816015</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245684</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339012</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>155.7512320878714</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249335</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085016</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721223</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330921</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860177</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I19" t="n">
-        <v>22.4571372041191</v>
+        <v>22.45713720411913</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432833</v>
+        <v>15.03686946432836</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257229</v>
+        <v>178.2734363206852</v>
       </c>
       <c r="T19" t="n">
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
@@ -2065,7 +2065,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463758</v>
@@ -2081,22 +2081,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>220.6411254041892</v>
       </c>
       <c r="G20" t="n">
         <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816015</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245684</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T20" t="n">
         <v>130.0226869339012</v>
@@ -2144,7 +2144,7 @@
         <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>243.5714575743105</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3426554503346</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>155.7512320878714</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249335</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085016</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721223</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330921</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860177</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I22" t="n">
-        <v>22.4571372041191</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432833</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
@@ -2293,16 +2293,16 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>212.627715130872</v>
+        <v>275.027409325835</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2318,7 +2318,7 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D23" t="n">
         <v>280.7877584149639</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245682</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
         <v>177.099888753183</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247764</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290882</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249335</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085016</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721223</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330921</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860177</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411909</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432832</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2530,7 +2530,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>274.7162491948569</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
@@ -2539,7 +2539,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>214.2140663782811</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524151</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.900909123119</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.946589034861</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958342</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403096</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515425</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988206</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598766</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247748</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633449</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800354</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797676</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433883</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404358</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572837</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124568</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145491</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128495</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575768</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052356</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179986</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335024</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3086,7 +3086,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007097</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115153</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383243</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052297</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010749</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846431</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F37" t="n">
-        <v>89.94326605921967</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>134.2912433677299</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480643</v>
@@ -3481,13 +3481,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239899</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007097</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052297</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010749</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846431</v>
+        <v>90.95618068285819</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482638</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H40" t="n">
-        <v>89.27723295060873</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333703</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3797,13 +3797,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C43" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D43" t="n">
-        <v>94.46999087276807</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333696</v>
+        <v>143.0438109257886</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.245649844157</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007101</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383236</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052301</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010753</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846435</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482642</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>110.5480262953158</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621596</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>135.6235431859976</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480644</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>154.4529230957232</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>120.89993312399</v>
       </c>
     </row>
   </sheetData>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1485.580684958772</v>
+        <v>1139.306993957415</v>
       </c>
       <c r="C11" t="n">
-        <v>1143.810235278084</v>
+        <v>797.5365442767275</v>
       </c>
       <c r="D11" t="n">
-        <v>812.7366039310571</v>
+        <v>797.5365442767275</v>
       </c>
       <c r="E11" t="n">
-        <v>812.7366039310571</v>
+        <v>739.5888639597796</v>
       </c>
       <c r="F11" t="n">
-        <v>428.9427664011732</v>
+        <v>739.5888639597796</v>
       </c>
       <c r="G11" t="n">
-        <v>81.31694793299098</v>
+        <v>351.7084810644999</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299098</v>
+        <v>81.31694793299087</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
@@ -5054,37 +5054,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395989</v>
+        <v>3242.507220395988</v>
       </c>
       <c r="T11" t="n">
         <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573495</v>
+        <v>2837.383130573494</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.512310489648</v>
+        <v>2533.512310489647</v>
       </c>
       <c r="W11" t="n">
-        <v>2207.935722479258</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X11" t="n">
-        <v>2207.935722479258</v>
+        <v>1861.662031477901</v>
       </c>
       <c r="Y11" t="n">
-        <v>1844.98845776317</v>
+        <v>1498.714766761813</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,31 +5136,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.2440901013231</v>
+        <v>418.312637560938</v>
       </c>
       <c r="C13" t="n">
-        <v>640.4999744331399</v>
+        <v>308.4618081072138</v>
       </c>
       <c r="D13" t="n">
-        <v>517.5754022805278</v>
+        <v>185.5372359546018</v>
       </c>
       <c r="E13" t="n">
-        <v>396.8543759578584</v>
+        <v>185.5372359546018</v>
       </c>
       <c r="F13" t="n">
-        <v>277.1564957196717</v>
+        <v>185.5372359546018</v>
       </c>
       <c r="G13" t="n">
-        <v>136.6457263541144</v>
+        <v>185.5372359546018</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
         <v>368.9238220705057</v>
@@ -5212,37 +5212,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784765</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058535</v>
       </c>
       <c r="R13" t="n">
-        <v>2086.541290407362</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S13" t="n">
-        <v>1922.047473493912</v>
+        <v>1913.369902162337</v>
       </c>
       <c r="T13" t="n">
-        <v>1727.472925323162</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U13" t="n">
-        <v>1465.562125708529</v>
+        <v>1456.884554376954</v>
       </c>
       <c r="V13" t="n">
-        <v>1238.069704762366</v>
+        <v>1229.392133430791</v>
       </c>
       <c r="W13" t="n">
-        <v>975.8446019851294</v>
+        <v>967.1670306535539</v>
       </c>
       <c r="X13" t="n">
-        <v>975.8446019851294</v>
+        <v>766.3695470152603</v>
       </c>
       <c r="Y13" t="n">
-        <v>782.2440901013231</v>
+        <v>572.769035131454</v>
       </c>
     </row>
     <row r="14">
@@ -5252,61 +5252,61 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1464.883581967807</v>
+        <v>1139.306993957417</v>
       </c>
       <c r="C14" t="n">
-        <v>1410.367303779124</v>
+        <v>1139.306993957417</v>
       </c>
       <c r="D14" t="n">
-        <v>1079.293672432097</v>
+        <v>1098.185049298301</v>
       </c>
       <c r="E14" t="n">
-        <v>720.6974870935765</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="F14" t="n">
-        <v>336.9036495636925</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9036495636925</v>
+        <v>351.7084810644999</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>81.31694793299093</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912083</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395989</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039935</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
         <v>2837.383130573496</v>
@@ -5315,13 +5315,13 @@
         <v>2533.512310489649</v>
       </c>
       <c r="W14" t="n">
-        <v>2533.512310489649</v>
+        <v>2207.935722479259</v>
       </c>
       <c r="X14" t="n">
-        <v>2187.238619488293</v>
+        <v>1861.662031477903</v>
       </c>
       <c r="Y14" t="n">
-        <v>1824.291354772205</v>
+        <v>1498.714766761815</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
@@ -5352,13 +5352,13 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L15" t="n">
         <v>765.151745215813</v>
@@ -5373,10 +5373,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>712.1104801793923</v>
+        <v>418.3126375609376</v>
       </c>
       <c r="C16" t="n">
-        <v>570.3663645112091</v>
+        <v>310.1577149074648</v>
       </c>
       <c r="D16" t="n">
-        <v>447.4417923585971</v>
+        <v>187.2331427548528</v>
       </c>
       <c r="E16" t="n">
-        <v>326.7207660359276</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0228857977408</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003744</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705056</v>
+        <v>368.923822070506</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402575</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.942556361061</v>
+        <v>1082.942556361062</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.001878188181</v>
+        <v>1451.001878188182</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784765</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058535</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.008292145084</v>
+        <v>1913.369902162337</v>
       </c>
       <c r="T16" t="n">
-        <v>1976.008292145084</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U16" t="n">
-        <v>1714.097492530451</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1486.605071584288</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W16" t="n">
-        <v>1224.379968807051</v>
+        <v>967.1670306535534</v>
       </c>
       <c r="X16" t="n">
-        <v>1023.582485168757</v>
+        <v>766.3695470152599</v>
       </c>
       <c r="Y16" t="n">
-        <v>829.9819732849509</v>
+        <v>572.7690351314535</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1224.583240809387</v>
       </c>
       <c r="D17" t="n">
-        <v>966.2289711446364</v>
+        <v>940.9592424104339</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446364</v>
+        <v>629.8126900199867</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628258</v>
+        <v>629.8126900199867</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156193</v>
@@ -5513,19 +5513,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939507</v>
@@ -5555,7 +5555,7 @@
         <v>2445.183887219624</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.359829166341</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
         <v>1830.862197398327</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
@@ -5592,52 +5592,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1517731235544</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671186</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625799</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879837</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978704</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
-        <v>89.1960934060411</v>
+        <v>89.19609340604113</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5698,25 +5698,25 @@
         <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.06160708844</v>
+        <v>1732.031612952115</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729438</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199204</v>
+        <v>1370.445531062879</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201114</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356249</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817302</v>
+        <v>822.2794225454045</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459971</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1571.696340267698</v>
+        <v>1518.904057542</v>
       </c>
       <c r="C20" t="n">
-        <v>1277.375523535084</v>
+        <v>1224.583240809386</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535084</v>
+        <v>940.9592424104322</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446364</v>
+        <v>629.812690019985</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628258</v>
+        <v>406.94286637939</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156193</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
         <v>3289.956853344062</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936082</v>
+        <v>3158.620805936081</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417715</v>
+        <v>2979.732029417714</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281941</v>
+        <v>2723.31084228194</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219624</v>
+        <v>2445.183887219623</v>
       </c>
       <c r="X20" t="n">
-        <v>2199.152111892038</v>
+        <v>2146.35982916634</v>
       </c>
       <c r="Y20" t="n">
-        <v>1883.654480124023</v>
+        <v>1830.862197398325</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
         <v>765.151745215813</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235544</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671186</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625799</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879837</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978704</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G22" t="n">
         <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.1960934060411</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.06160708844</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
         <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199204</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201114</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356249</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817302</v>
+        <v>822.2794225454045</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459971</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5966,61 @@
         <v>1862.18597705695</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324335</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
         <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349346</v>
+        <v>973.094609534935</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531241</v>
+        <v>636.7504049531244</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
-        <v>388.4813261528512</v>
+        <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>722.3006998426977</v>
+        <v>596.0762594713543</v>
       </c>
       <c r="L23" t="n">
-        <v>1173.334913091107</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1706.866817763031</v>
+        <v>1580.642377391688</v>
       </c>
       <c r="N23" t="n">
-        <v>2253.645634821813</v>
+        <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2756.61810570115</v>
+        <v>2901.750690780204</v>
       </c>
       <c r="P23" t="n">
-        <v>3151.392472058329</v>
+        <v>3296.525057137382</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567317</v>
+        <v>3544.811418893064</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124119</v>
+        <v>3668.88774112412</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859011</v>
+        <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.90272545103</v>
+        <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932664</v>
+        <v>3323.013948932663</v>
       </c>
       <c r="V23" t="n">
         <v>3066.59276179689</v>
@@ -6042,58 +6042,58 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714078</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902808</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.0220539290295</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.784598923574</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.250040950459</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.8869407830771</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094466</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130997</v>
+        <v>167.0550243130998</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934468</v>
+        <v>405.3192232934469</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061122</v>
+        <v>772.0173836061123</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382882</v>
+        <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800937</v>
+        <v>2103.778031800938</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.27762327704</v>
+        <v>2414.277623277041</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516155</v>
+        <v>2571.774827516156</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009635</v>
+        <v>2442.336941009636</v>
       </c>
       <c r="T24" t="n">
         <v>2249.693940687491</v>
@@ -6105,7 +6105,7 @@
         <v>1786.473985590164</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861962</v>
+        <v>1532.236628861963</v>
       </c>
       <c r="X24" t="n">
         <v>1324.38512865643</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775275</v>
+        <v>575.9874173775277</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574176</v>
+        <v>481.6929346574178</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528788</v>
+        <v>406.217995452879</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782827</v>
+        <v>332.9466020782829</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881694</v>
+        <v>260.6983547881695</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706853</v>
+        <v>167.6372183706854</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634006</v>
+        <v>96.0617317963401</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
@@ -6178,19 +6178,19 @@
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453177</v>
+        <v>1440.341163589504</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455087</v>
+        <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259236</v>
+        <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357033</v>
+        <v>829.1450609357034</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999702</v>
+        <v>682.9941819999704</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6215,61 +6215,61 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398489</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>437.4316968760677</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>771.2510705659142</v>
       </c>
       <c r="L26" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486248</v>
+        <v>2200.835586644152</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.59600554503</v>
+        <v>2747.614403702934</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424367</v>
+        <v>3250.586874582271</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521975</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309628</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L27" t="n">
         <v>779.786545680319</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698012</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899675</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257049</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913849</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415477</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350175</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308446</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481266</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167332</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572253</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277855</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052754</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.38513864407</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297369</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347425</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519678</v>
       </c>
     </row>
     <row r="29">
@@ -6449,43 +6449,43 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>665.7404053951332</v>
       </c>
       <c r="L29" t="n">
-        <v>1339.011402386887</v>
+        <v>1116.774618643542</v>
       </c>
       <c r="M29" t="n">
-        <v>1872.543307058811</v>
+        <v>2095.324921473371</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2642.103738532153</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3145.07620941149</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q29" t="n">
         <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309627</v>
@@ -6500,7 +6500,7 @@
         <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
         <v>2714.947448833287</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803193</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698006</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257046</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913848</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960316</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982174</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6640,10 +6640,10 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
         <v>2127.355355052752</v>
@@ -6652,19 +6652,19 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557148</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910144</v>
       </c>
       <c r="L32" t="n">
-        <v>1468.364237198916</v>
+        <v>1496.733761127193</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.89614187084</v>
+        <v>2030.265665799118</v>
       </c>
       <c r="N32" t="n">
-        <v>2548.674958929623</v>
+        <v>2577.0444828579</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
@@ -6734,16 +6734,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464976</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307333</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
@@ -6935,28 +6935,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6965,22 +6965,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -7017,7 +7017,7 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
         <v>765.1517452158131</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>642.2355359389142</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C37" t="n">
-        <v>571.9707875848505</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D37" t="n">
-        <v>520.5255827463582</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E37" t="n">
-        <v>471.2839237378084</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F37" t="n">
-        <v>380.4321398396067</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143257</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
         <v>66.51211643218343</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1791.646827515028</v>
       </c>
       <c r="T37" t="n">
-        <v>1612.513483058689</v>
+        <v>1668.551646658398</v>
       </c>
       <c r="U37" t="n">
-        <v>1323.410616184332</v>
+        <v>1379.448779784041</v>
       </c>
       <c r="V37" t="n">
-        <v>1167.397562552288</v>
+        <v>1124.764291578154</v>
       </c>
       <c r="W37" t="n">
-        <v>976.6518270891712</v>
+        <v>835.3471215411935</v>
       </c>
       <c r="X37" t="n">
-        <v>847.3337107649972</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y37" t="n">
-        <v>725.2125661953105</v>
+        <v>485.2364260734893</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F38" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218343</v>
@@ -7172,22 +7172,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296687</v>
@@ -7202,22 +7202,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5641013650704</v>
+        <v>543.5641013650711</v>
       </c>
       <c r="C40" t="n">
-        <v>473.2993530110068</v>
+        <v>473.2993530110076</v>
       </c>
       <c r="D40" t="n">
-        <v>421.8541481725144</v>
+        <v>323.1827135986719</v>
       </c>
       <c r="E40" t="n">
-        <v>372.6124891639646</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F40" t="n">
-        <v>324.3939762398975</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>156.6911396146165</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218343</v>
@@ -7357,25 +7357,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>1167.397562552289</v>
       </c>
       <c r="W40" t="n">
-        <v>1173.994696236858</v>
+        <v>976.6518270891715</v>
       </c>
       <c r="X40" t="n">
-        <v>946.0051453388403</v>
+        <v>847.3337107649976</v>
       </c>
       <c r="Y40" t="n">
-        <v>725.2125661953102</v>
+        <v>725.2125661953108</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,13 +7394,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7409,28 +7409,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7439,19 +7439,19 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960652</v>
@@ -7488,13 +7488,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>839.5784050866012</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C43" t="n">
-        <v>769.3136567325377</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D43" t="n">
-        <v>673.8894235277214</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E43" t="n">
-        <v>525.9763299453283</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218343</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1692.975392941184</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332019</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.994696236858</v>
+        <v>835.3471215411927</v>
       </c>
       <c r="X43" t="n">
-        <v>1044.676579912684</v>
+        <v>706.0290052170187</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.5554353429975</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="44">
@@ -7631,55 +7631,55 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464968</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307327</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T44" t="n">
         <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
         <v>2819.429779746128</v>
@@ -7688,7 +7688,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
         <v>1999.070337960652</v>
@@ -7722,13 +7722,13 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
         <v>765.1517452158131</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.9279421464339</v>
+        <v>444.8926667912269</v>
       </c>
       <c r="C46" t="n">
-        <v>626.6631937923704</v>
+        <v>374.6279184371633</v>
       </c>
       <c r="D46" t="n">
-        <v>575.217988953878</v>
+        <v>323.1827135986708</v>
       </c>
       <c r="E46" t="n">
-        <v>525.9763299453283</v>
+        <v>273.941054590121</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>225.7225416660539</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1790.301070122839</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1667.205889266208</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U46" t="n">
-        <v>1476.774456965695</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V46" t="n">
-        <v>1320.761403333652</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W46" t="n">
-        <v>1130.015667870534</v>
+        <v>877.9803925153276</v>
       </c>
       <c r="X46" t="n">
-        <v>1000.69755154636</v>
+        <v>748.6622761911535</v>
       </c>
       <c r="Y46" t="n">
-        <v>779.9049724028303</v>
+        <v>626.5411316214667</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430632</v>
+        <v>157.2353108430634</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729009</v>
+        <v>184.4039433729013</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389605</v>
+        <v>191.494890938961</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333069</v>
+        <v>181.0856325333074</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830243</v>
+        <v>179.3553748830248</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383992</v>
+        <v>182.8301554383997</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586586</v>
+        <v>190.8908035586591</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266125</v>
+        <v>192.0103836266128</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875975</v>
+        <v>112.6562001875976</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372534</v>
+        <v>113.6031223372536</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672275</v>
+        <v>105.9629718672278</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253594</v>
+        <v>104.1013981253598</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677669</v>
+        <v>92.30246558677709</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359737</v>
+        <v>106.8829608359741</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798325</v>
+        <v>105.3113487798328</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615458</v>
+        <v>120.821278461546</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564658</v>
+        <v>116.175525256466</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085228</v>
+        <v>119.199607408523</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140778</v>
+        <v>108.428412314078</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530925</v>
+        <v>120.6694600530927</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662705</v>
+        <v>122.5080856662707</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>127.4994347185287</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>274.0980055054515</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-2.202682480856311e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>277.2206841544135</v>
+        <v>105.7385611944704</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,16 +10112,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>62.52018570663842</v>
       </c>
       <c r="L29" t="n">
-        <v>287.0017854473909</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>122.1718867553231</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>306.6874953089247</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>297.6420199713569</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G11" t="n">
-        <v>39.85201878282657</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>31.57435335231481</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594426</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358047</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271158</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.590795618261383</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019107</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>284.3816297770852</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>287.0521698210316</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G14" t="n">
-        <v>384.001579066327</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579953</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36.21905542030788</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33.2533010845634</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358047</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271943</v>
+        <v>117.8348683271942</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271166</v>
+        <v>69.43227382271155</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292089</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23735,16 +23735,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>25.01703144686052</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665428</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.0713557774107221</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23972,19 +23972,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149639</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>112.3396371318032</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>52.26435989843954</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>997077.8805219628</v>
+        <v>997077.880521963</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>327710.5354868153</v>
+      </c>
+      <c r="C2" t="n">
         <v>327710.5354868154</v>
       </c>
-      <c r="C2" t="n">
-        <v>327710.5354868153</v>
-      </c>
       <c r="D2" t="n">
-        <v>327719.4679223783</v>
+        <v>327719.4679223785</v>
       </c>
       <c r="E2" t="n">
-        <v>291816.0003619899</v>
+        <v>291816.0003619898</v>
       </c>
       <c r="F2" t="n">
-        <v>291816.0003619898</v>
+        <v>291816.00036199</v>
       </c>
       <c r="G2" t="n">
-        <v>317812.3284986141</v>
+        <v>317812.3284986142</v>
       </c>
       <c r="H2" t="n">
-        <v>317812.3284986141</v>
+        <v>317812.3284986142</v>
       </c>
       <c r="I2" t="n">
         <v>328416.7079457134</v>
       </c>
       <c r="J2" t="n">
+        <v>328416.7079457136</v>
+      </c>
+      <c r="K2" t="n">
         <v>328416.7079457134</v>
       </c>
-      <c r="K2" t="n">
-        <v>328416.7079457133</v>
-      </c>
       <c r="L2" t="n">
+        <v>328416.707945713</v>
+      </c>
+      <c r="M2" t="n">
+        <v>328416.7079457134</v>
+      </c>
+      <c r="N2" t="n">
         <v>328416.7079457135</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>328416.7079457134</v>
+      </c>
+      <c r="P2" t="n">
         <v>328416.7079457132</v>
-      </c>
-      <c r="N2" t="n">
-        <v>328416.7079457134</v>
-      </c>
-      <c r="O2" t="n">
-        <v>328416.7079457132</v>
-      </c>
-      <c r="P2" t="n">
-        <v>328416.7079457134</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552263</v>
+        <v>59764.55367552201</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163632</v>
+        <v>1089238.972163633</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487395</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983383</v>
+        <v>22821.46782983375</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179695</v>
+        <v>25409.43302179704</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.109294874</v>
+        <v>37580.10929487394</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927242</v>
+        <v>202168.0999927241</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.795920070435386e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,28 +26421,28 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>430603.4278954652</v>
+        <v>430603.4278954654</v>
       </c>
       <c r="E4" t="n">
-        <v>40024.16194364977</v>
+        <v>40024.16194364989</v>
       </c>
       <c r="F4" t="n">
-        <v>40024.16194364979</v>
+        <v>40024.16194364987</v>
       </c>
       <c r="G4" t="n">
-        <v>77052.32230509199</v>
+        <v>77052.32230509198</v>
       </c>
       <c r="H4" t="n">
-        <v>77052.32230509199</v>
+        <v>77052.32230509196</v>
       </c>
       <c r="I4" t="n">
-        <v>90617.51027754383</v>
+        <v>90617.51027754381</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.95519699578</v>
+        <v>88960.95519699575</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.95519699581</v>
+        <v>88960.95519699583</v>
       </c>
       <c r="L4" t="n">
         <v>88960.95519699578</v>
@@ -26451,13 +26451,13 @@
         <v>92183.89891818166</v>
       </c>
       <c r="N4" t="n">
-        <v>92183.89891818166</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="O4" t="n">
         <v>92183.89891818172</v>
       </c>
       <c r="P4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818169</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186635</v>
+        <v>35148.90543186634</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.49036482642</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.49036482644</v>
       </c>
       <c r="G5" t="n">
         <v>80518.64312521488</v>
@@ -26491,25 +26491,25 @@
         <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-158317.0550621498</v>
+        <v>-158321.468640018</v>
       </c>
       <c r="C6" t="n">
-        <v>-158317.0550621499</v>
+        <v>-158321.4686400179</v>
       </c>
       <c r="D6" t="n">
-        <v>-197797.4190804758</v>
+        <v>-197801.7768306211</v>
       </c>
       <c r="E6" t="n">
-        <v>-914016.6241101183</v>
+        <v>-914245.3785325172</v>
       </c>
       <c r="F6" t="n">
-        <v>175222.3480535136</v>
+        <v>174993.5936311152</v>
       </c>
       <c r="G6" t="n">
-        <v>122661.2537734332</v>
+        <v>122594.976401889</v>
       </c>
       <c r="H6" t="n">
-        <v>160241.3630683073</v>
+        <v>160175.0856967628</v>
       </c>
       <c r="I6" t="n">
-        <v>129241.2015364936</v>
+        <v>129241.2015364937</v>
       </c>
       <c r="J6" t="n">
-        <v>124668.3780521145</v>
+        <v>124668.3780521147</v>
       </c>
       <c r="K6" t="n">
         <v>150077.8110739114</v>
       </c>
       <c r="L6" t="n">
-        <v>112497.7017790376</v>
+        <v>112497.7017790371</v>
       </c>
       <c r="M6" t="n">
-        <v>-48453.88827144248</v>
+        <v>-48453.88827144228</v>
       </c>
       <c r="N6" t="n">
-        <v>153714.2117212819</v>
+        <v>153714.2117212817</v>
       </c>
       <c r="O6" t="n">
+        <v>153714.2117212818</v>
+      </c>
+      <c r="P6" t="n">
         <v>153714.2117212816</v>
-      </c>
-      <c r="P6" t="n">
-        <v>153714.2117212819</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859242</v>
+      </c>
+      <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="K2" t="n">
-        <v>46.97513661859258</v>
-      </c>
       <c r="L2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810482</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790624</v>
+        <v>69.78465283790551</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26765,7 +26765,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810298</v>
+        <v>917.2219352810299</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208615</v>
@@ -26829,7 +26829,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859243</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951232</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790624</v>
+        <v>69.78465283790551</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755392</v>
+        <v>1019.992047755393</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873716</v>
+        <v>85.8204798787375</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758462</v>
+        <v>97.11452592758496</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.466449595971</v>
+        <v>648.4664495959706</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859243</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104727</v>
+        <v>199.6603204104728</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780175</v>
+        <v>132.2465643780177</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036572</v>
+        <v>202.6272343036573</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672107</v>
+        <v>84.22861846672113</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.8382912698752</v>
+        <v>90.8382912698753</v>
       </c>
       <c r="S9" t="n">
-        <v>168.895076719229</v>
+        <v>168.8950767192291</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406285</v>
+        <v>161.1083300406286</v>
       </c>
       <c r="I10" t="n">
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519086</v>
+        <v>84.46220888519096</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990371</v>
+        <v>7.649035050990522</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317055</v>
+        <v>75.62456067317065</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437878</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712655</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C19" t="n">
-        <v>11.49558901075639</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075665</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C22" t="n">
-        <v>11.49558901075639</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075596</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U25" t="n">
-        <v>11.49558901075596</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075602</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859506</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859205</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859335</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F37" t="n">
-        <v>55.47778196371158</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>55.477781963712</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="39">
@@ -30381,22 +30381,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810487</v>
+        <v>55.47778196371098</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H40" t="n">
-        <v>55.47778196371205</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D43" t="n">
-        <v>54.14548214544429</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810494</v>
+        <v>46.72521440565333</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810482</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>55.47778196371247</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>54.14548214544428</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>97.68472022810482</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413314</v>
+        <v>0.2805413179413285</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366661</v>
+        <v>2.873093772366631</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993319</v>
+        <v>10.81556915993308</v>
       </c>
       <c r="J8" t="n">
-        <v>23.8105936836231</v>
+        <v>23.81059368362285</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207966</v>
+        <v>35.68590767207929</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102669</v>
+        <v>44.27152403102623</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396584</v>
+        <v>49.26060069396533</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356666</v>
+        <v>50.05768871356614</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328754</v>
+        <v>47.26805598328705</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661091</v>
+        <v>40.34219219661049</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783697</v>
+        <v>30.29530624783666</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313217</v>
+        <v>17.62255356313199</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588096</v>
+        <v>6.392835282588029</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288179</v>
+        <v>1.228069619288166</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530651</v>
+        <v>0.02244330543530627</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796474</v>
+        <v>0.1501028381796458</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840279</v>
+        <v>1.449677410840264</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694001</v>
+        <v>5.168014384693946</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906923</v>
+        <v>14.18142647906908</v>
       </c>
       <c r="K9" t="n">
-        <v>24.2383166371056</v>
+        <v>24.23831663710535</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264669</v>
+        <v>32.59140791264635</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665889</v>
+        <v>38.0326357966585</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655662</v>
+        <v>39.03924649655622</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847075</v>
+        <v>35.71328360847038</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449776</v>
+        <v>28.66305863449746</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447569</v>
+        <v>19.16049562447549</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767935</v>
+        <v>9.319542882767838</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608799</v>
+        <v>2.78809438460877</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890171</v>
+        <v>0.6050197731890108</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345226</v>
+        <v>0.009875186722345124</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486834</v>
+        <v>0.125841177248682</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811022</v>
+        <v>1.11884246681101</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078588</v>
+        <v>3.784387403078549</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481913</v>
+        <v>8.896971231481821</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489248</v>
+        <v>14.62045677489233</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477244</v>
+        <v>18.70915102477224</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908225</v>
+        <v>19.72617653908204</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115535</v>
+        <v>19.25713215115515</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875027</v>
+        <v>17.78707839875009</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287712</v>
+        <v>15.21991838287696</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852384</v>
+        <v>10.53748257852373</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381707</v>
+        <v>5.658276933381648</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233872</v>
+        <v>2.193068516233849</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625561</v>
+        <v>0.5376850300625504</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564555</v>
+        <v>0.006864064213564483</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,7 +32315,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138795</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33266,7 +33266,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33418,40 +33418,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33570,43 +33570,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33737,10 +33737,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34217,7 +34217,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34445,13 +34445,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019268</v>
+        <v>72.49856320019275</v>
       </c>
       <c r="K13" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314461</v>
       </c>
       <c r="L13" t="n">
         <v>346.6775187573246</v>
@@ -35580,13 +35580,13 @@
         <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097663</v>
       </c>
       <c r="P13" t="n">
         <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250201</v>
+        <v>105.3143851250202</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019265</v>
+        <v>72.49856320019278</v>
       </c>
       <c r="K16" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314461</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573247</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806104</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097663</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322368</v>
+        <v>261.877217732237</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250201</v>
+        <v>105.3143851250202</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340053</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>318.2864356872412</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36370,16 +36370,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>782.1510063936706</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36610,13 +36610,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737854</v>
+        <v>504.5005474138422</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165864</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120789</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>399.7114722620389</v>
       </c>
       <c r="L29" t="n">
-        <v>742.5918998397231</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36850,7 +36850,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36914,7 +36914,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>577.7620011476554</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>814.7404961971438</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597722</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120759</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861334</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37798,7 +37798,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37865,7 +37865,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
